--- a/FurryMine/Assets/Datas/MineTable.xlsx
+++ b/FurryMine/Assets/Datas/MineTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndieGame\ProjectMine\Unity\FurryMine\Assets\Resources\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndieGame\ProjectMine\Unity\FurryMine\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF1B73A-CBB4-469B-96CF-85705E225AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4B7825-A5D5-4395-8F81-5128B99B8BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{E58F2053-869D-4D54-9C58-85E922D4CEC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E58F2053-869D-4D54-9C58-85E922D4CEC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -469,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -503,7 +503,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -520,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -537,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -554,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -571,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -605,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -622,7 +622,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -639,7 +639,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -656,7 +656,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -673,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>7</v>
@@ -690,7 +690,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>8</v>
